--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder (2)\Projekti-2-Ohjelmistorobotti\SoftwareBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB9CFE1E-E301-4AB7-8FB0-49A6634369F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7726BBBC-B63C-456A-8E24-1DA6048880B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="4920" windowWidth="18390" windowHeight="13935" xr2:uid="{A81E9411-4608-4B13-9D6F-E7919D58494B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Taul1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -36,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Yritys </t>
+    <t>Name</t>
   </si>
   <si>
-    <t>Ohjelmistorobotti</t>
+    <t xml:space="preserve">                          Ostot                      </t>
   </si>
 </sst>
 </file>
@@ -95,7 +81,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -111,7 +97,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -123,7 +109,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -170,23 +156,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -222,23 +191,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,16 +342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1419B93-D66F-43E5-9A8B-142B7E5C05E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7726BBBC-B63C-456A-8E24-1DA6048880B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F10F6B-8EAB-46F9-AE95-9E8A57063DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9030" yWindow="1875" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,26 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">                          Ostot                      </t>
+    <t>Ohjelmistorobotti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -346,12 +353,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -360,11 +367,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F10F6B-8EAB-46F9-AE95-9E8A57063DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95F362-FE83-47DC-A9EB-86627E0E07E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9030" yWindow="1875" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Ohjelmistorobotti</t>
+    <t xml:space="preserve">                                        RoboCamp demoyritys 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Ohjelmistorobotti </t>
   </si>
 </sst>
 </file>
@@ -350,15 +353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -371,6 +374,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F10F6B-8EAB-46F9-AE95-9E8A57063DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8266B-49D1-4B6D-8E08-736318E2C1AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="1875" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>RoboCamp demoyritys 1</t>
   </si>
   <si>
     <t>Ohjelmistorobotti</t>
@@ -67,9 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -350,26 +356,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8266B-49D1-4B6D-8E08-736318E2C1AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919401-DFC4-48A8-8FAA-398DEFB76CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoboCamp demoyritys 1</t>
+    <t xml:space="preserve">                                         RoboCamp demoyritys 1                                     </t>
   </si>
   <si>
-    <t>Ohjelmistorobotti</t>
+    <t xml:space="preserve">                                         Ohjelmistorobotti                                     </t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95F362-FE83-47DC-A9EB-86627E0E07E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919401-DFC4-48A8-8FAA-398DEFB76CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="1875" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">                                        RoboCamp demoyritys 1</t>
+    <t xml:space="preserve">                                         RoboCamp demoyritys 1                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">                                        Ohjelmistorobotti </t>
+    <t xml:space="preserve">                                         Ohjelmistorobotti                                     </t>
   </si>
 </sst>
 </file>
@@ -70,9 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -356,30 +359,30 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
   </sheetData>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E919401-DFC4-48A8-8FAA-398DEFB76CA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DD81C-A4CB-4C0F-9BCD-DE3950911F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">                                         Ohjelmistorobotti                                     </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Helmikuu</t>
+  </si>
+  <si>
+    <t>Maaliskuu</t>
   </si>
 </sst>
 </file>
@@ -356,33 +365,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
   </sheetData>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DD81C-A4CB-4C0F-9BCD-DE3950911F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FA200D-B4D2-49DE-AF6E-FFB36E8B6307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve">                                         RoboCamp demoyritys 1                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                         Ohjelmistorobotti                                     </t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t>Maaliskuu</t>
+  </si>
+  <si>
+    <t>RoboCamp demoyritys 1</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,23 +382,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -1,105 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DD81C-A4CB-4C0F-9BCD-DE3950911F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD402F-BCB0-48ED-8648-C0898CA46AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Taul1" sheetId="5" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                         RoboCamp demoyritys 1                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                         Ohjelmistorobotti                                     </t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Helmikuu</t>
-  </si>
-  <si>
-    <t>Maaliskuu</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoboCamp demoyritys 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Helmikuu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohjelmistorobotti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maaliskuu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoboCampdemoyritys1.Helmikuu.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohjelmistorobotti.Maaliskuu.pdf</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="9"/>
+      <x:color rgb="FF222222"/>
+      <x:name val="Consolas"/>
+      <x:family val="3"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="7">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,48 +415,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B4"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <x:selection activeCell="A3" sqref="A3 A3:A3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="44.664062" style="4" customWidth="1"/>
+    <x:col min="2" max="2" width="9.886719" style="4" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="6" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A20:A21"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -42,10 +42,10 @@
     <x:t>Maaliskuu</x:t>
   </x:si>
   <x:si>
+    <x:t>Ohjelmistorobotti.Maaliskuu.pdf</x:t>
+  </x:si>
+  <x:si>
     <x:t>RoboCampdemoyritys1.Helmikuu.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ohjelmistorobotti.Maaliskuu.pdf</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -94,9 +94,18 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="8">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -478,14 +487,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
     <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A20" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A21" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -1,165 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD402F-BCB0-48ED-8648-C0898CA46AC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Taul1" sheetId="5" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9052ED-6717-4C8C-8CB3-6A73EE43D34F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Taul1" sheetId="5" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RoboCamp demoyritys 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Helmikuu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ohjelmistorobotti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maaliskuu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ohjelmistorobotti.Maaliskuu.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RoboCampdemoyritys1.Helmikuu.pdf</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>RoboCamp demoyritys 1</t>
+  </si>
+  <si>
+    <t>Ohjelmistorobotti</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>RoboCampdemoyritys1.Helmikuu.pdf</t>
+  </si>
+  <si>
+    <t>Ohjelmistorobotti.Maaliskuu.pdf</t>
+  </si>
+  <si>
+    <t>Sähköposti</t>
+  </si>
+  <si>
+    <t>Aihe</t>
+  </si>
+  <si>
+    <t>Viesti</t>
+  </si>
+  <si>
+    <t>toni.kari@student.lab.fi</t>
+  </si>
+  <si>
+    <t>Testi</t>
+  </si>
+  <si>
+    <t>Terve</t>
+  </si>
+  <si>
+    <t>Yrityksen nimi</t>
+  </si>
+  <si>
+    <t>Tammikuu</t>
+  </si>
+  <si>
+    <t>Heinäkuu</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="9"/>
-      <x:color rgb="FF222222"/>
-      <x:name val="Consolas"/>
-      <x:family val="3"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normaali" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,89 +411,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B4"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3 A3:A3"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="44.664062" style="4" customWidth="1"/>
-    <x:col min="2" max="2" width="9.886719" style="4" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="4" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="5" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="6" t="s"/>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F1048E2E-ACD7-4EDA-BA01-3EFC4FD298B2}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{204E1812-69CF-4232-8D50-7F5BE08ED539}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A20:A21"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A20" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/SoftwareBot/Yritykset.xlsx
+++ b/SoftwareBot/Yritykset.xlsx
@@ -1,152 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9052ED-6717-4C8C-8CB3-6A73EE43D34F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Taul1" sheetId="5" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE355233-7135-474B-B5A9-01598382EFCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Taul1" sheetId="5" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>RoboCamp demoyritys 1</t>
-  </si>
-  <si>
-    <t>Ohjelmistorobotti</t>
-  </si>
-  <si>
-    <t>FileName</t>
-  </si>
-  <si>
-    <t>RoboCampdemoyritys1.Helmikuu.pdf</t>
-  </si>
-  <si>
-    <t>Ohjelmistorobotti.Maaliskuu.pdf</t>
-  </si>
-  <si>
-    <t>Sähköposti</t>
-  </si>
-  <si>
-    <t>Aihe</t>
-  </si>
-  <si>
-    <t>Viesti</t>
-  </si>
-  <si>
-    <t>toni.kari@student.lab.fi</t>
-  </si>
-  <si>
-    <t>Testi</t>
-  </si>
-  <si>
-    <t>Terve</t>
-  </si>
-  <si>
-    <t>Yrityksen nimi</t>
-  </si>
-  <si>
-    <t>Tammikuu</t>
-  </si>
-  <si>
-    <t>Heinäkuu</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <x:si>
+    <x:t>Yrityksen nimi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sähköposti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aihe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viesti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohjelmistorobotti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tammikuu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>toni.kari@student.lab.fi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Testi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoboCamp demoyritys 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heinäkuu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ohjelmistorobotti.Tammikuu.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RoboCampdemoyritys1.Heinäkuu.pdf</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="4" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="9"/>
+      <x:color rgb="FF222222"/>
+      <x:name val="Consolas"/>
+      <x:family val="3"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="9">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="top"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment vertical="top"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,113 +452,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F1048E2E-ACD7-4EDA-BA01-3EFC4FD298B2}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{204E1812-69CF-4232-8D50-7F5BE08ED539}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E7"/>
+  <x:sheetViews>
+    <x:sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <x:selection activeCell="A4" sqref="A4 A4:A4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="44.664062" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="9.886719" style="5" customWidth="1"/>
+    <x:col min="3" max="3" width="20.664062" style="5" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="5" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="6" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="6" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="6" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="6" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="C2" r:id="rId8"/>
+    <x:hyperlink ref="C3" r:id="rId9"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A21"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A5" sqref="A5 A5:A5 A1:A5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="5" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="5" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="5" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="5" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="5" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="5" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="5" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>